--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,13 +416,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -432,19 +432,23 @@
   </si>
   <si>
     <t>Condition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -457,14 +461,14 @@
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -631,6 +635,9 @@
     <t>Condition.code.extension</t>
   </si>
   <si>
+    <t>擴充的資料項目</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -806,6 +813,27 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>Condition.code.coding:icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）定義的代碼</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
+  </si>
+  <si>
+    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
+  </si>
+  <si>
+    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-10-cm-2023-tw</t>
+  </si>
+  <si>
     <t>Condition.code.coding:icd10-cm-2021</t>
   </si>
   <si>
@@ -837,18 +865,6 @@
   </si>
   <si>
     <t>icd9-cm-2001</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）定義的代碼</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
-  </si>
-  <si>
-    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
-  </si>
-  <si>
-    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-9-cm-2001-tw</t>
@@ -1058,7 +1074,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|RelatedPerson)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore)
 </t>
   </si>
   <si>
@@ -1124,17 +1140,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -1149,9 +1155,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1609,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2609,7 +2612,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2628,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2687,7 +2690,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2699,7 +2702,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2711,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>20</v>
@@ -2719,14 +2722,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2745,19 +2748,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2806,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2818,7 +2821,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2830,7 +2833,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>20</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2864,19 +2867,19 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2925,7 +2928,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2940,7 +2943,7 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
@@ -2949,18 +2952,18 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2983,16 +2986,16 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3018,13 +3021,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3042,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3051,7 +3054,7 @@
         <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
@@ -3063,10 +3066,10 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3074,10 +3077,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3100,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3135,13 +3138,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -3159,7 +3162,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3168,7 +3171,7 @@
         <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
@@ -3180,10 +3183,10 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3191,10 +3194,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3252,13 +3255,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3276,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3285,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
@@ -3297,10 +3300,10 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3308,10 +3311,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3334,16 +3337,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3369,13 +3372,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3393,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3402,7 +3405,7 @@
         <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>101</v>
@@ -3414,10 +3417,10 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3425,14 +3428,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3451,19 +3454,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3488,11 +3491,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3510,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3519,7 +3522,7 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>101</v>
@@ -3531,10 +3534,10 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3568,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3625,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3649,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3683,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3728,19 +3731,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3752,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3772,10 +3775,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3798,19 +3801,19 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3847,17 +3850,17 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3866,7 +3869,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
@@ -3878,10 +3881,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -3889,10 +3892,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3915,13 +3918,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3972,7 +3975,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3996,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4030,16 +4033,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4077,19 +4080,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4101,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4121,10 +4124,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4150,16 +4153,16 @@
         <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4169,7 +4172,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4208,7 +4211,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4229,10 +4232,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4240,10 +4243,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4266,16 +4269,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4325,7 +4328,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4346,10 +4349,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4357,10 +4360,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4386,14 +4389,14 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4442,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4463,10 +4466,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4474,10 +4477,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4500,17 +4503,17 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4559,7 +4562,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4580,10 +4583,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4591,10 +4594,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4617,19 +4620,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4678,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4699,10 +4702,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4710,13 +4713,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4738,19 +4741,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4775,13 +4778,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4799,7 +4800,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4808,7 +4809,7 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>101</v>
@@ -4820,10 +4821,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -4831,13 +4832,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -4859,19 +4860,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4896,13 +4897,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4920,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4929,7 +4930,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
@@ -4941,10 +4942,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -4952,13 +4953,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -4980,19 +4981,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5017,11 +5018,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5039,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5048,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>101</v>
@@ -5060,10 +5063,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5071,13 +5074,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
@@ -5099,19 +5102,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5136,11 +5139,9 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y30" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
         <v>275</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5169,7 +5170,7 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5181,10 +5182,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5195,7 +5196,7 @@
         <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>277</v>
@@ -5220,19 +5221,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5257,13 +5258,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5281,7 +5282,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5290,7 +5291,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
@@ -5302,10 +5303,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5313,12 +5314,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5336,22 +5339,22 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5376,13 +5379,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5400,16 +5403,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5421,10 +5424,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5446,7 +5449,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>90</v>
@@ -5455,21 +5458,23 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5493,13 +5498,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5517,16 +5522,16 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -5538,10 +5543,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5549,21 +5554,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>90</v>
@@ -5572,21 +5577,21 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5610,13 +5615,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5634,56 +5639,56 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5692,18 +5697,18 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5751,10 +5756,10 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5766,27 +5771,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5800,7 +5805,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5809,16 +5814,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5868,7 +5873,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5883,27 +5888,27 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5923,19 +5928,19 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5985,7 +5990,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5994,33 +5999,33 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6034,24 +6039,26 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6100,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6109,7 +6116,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6121,21 +6128,21 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6158,13 +6165,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6215,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6236,21 +6243,21 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6264,7 +6271,7 @@
         <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6273,7 +6280,7 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>343</v>
@@ -6330,7 +6337,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6351,21 +6358,21 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6376,25 +6383,25 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6445,42 +6452,42 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6491,7 +6498,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6503,7 +6510,7 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>355</v>
@@ -6560,19 +6567,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6584,7 +6591,7 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6592,21 +6599,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6618,17 +6625,15 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
         <v>361</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6677,19 +6682,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6701,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6716,7 +6721,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>363</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6729,26 +6734,24 @@
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>137</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6808,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6820,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6828,44 +6831,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6889,13 +6894,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6919,13 +6924,13 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -6934,10 +6939,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6945,10 +6950,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6959,7 +6964,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6971,15 +6976,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7004,13 +7011,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7028,16 +7035,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
@@ -7049,10 +7056,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7060,10 +7067,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7074,7 +7081,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7086,17 +7093,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7121,13 +7126,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7145,16 +7150,16 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7166,10 +7171,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>165</v>
+        <v>379</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7177,10 +7182,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7191,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7203,16 +7208,16 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7238,13 +7243,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7262,19 +7267,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7283,10 +7288,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>166</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7294,10 +7299,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7308,7 +7313,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7320,15 +7325,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7377,19 +7384,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7401,7 +7408,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7416,14 +7423,14 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7435,17 +7442,15 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N50" t="s" s="2">
         <v>361</v>
       </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7494,19 +7499,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7518,7 +7523,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7533,7 +7538,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>363</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7546,26 +7551,24 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7625,7 +7628,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7637,7 +7640,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7652,7 +7655,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7665,24 +7668,26 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7706,13 +7711,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7730,7 +7735,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7739,10 +7744,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7751,10 +7756,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7762,10 +7767,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7785,18 +7790,20 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>157</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7821,13 +7828,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7845,7 +7852,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7854,7 +7861,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
@@ -7866,21 +7873,21 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>403</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7891,25 +7898,25 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7960,7 +7967,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7969,29 +7976,144 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8001,7 +8123,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Condition Tube</t>
+    <t>長期照顧－管路裝設狀況</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長照機構住民的管路資料</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Condition Resource，以呈現長照機構住民的管路裝設狀況與類別。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1621,15 +1621,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1640,27 +1640,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1621,15 +1621,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1640,27 +1640,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>需要明確說明符號定義的來源</t>
+  </si>
+  <si>
+    <t>http://ltc-ig.fhir.tw/CodeSystem/ReferralConditionTubeCS-TWLTC</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -4172,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4211,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4232,10 +4235,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4243,10 +4246,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4272,13 +4275,13 @@
         <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4328,7 +4331,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4349,10 +4352,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4360,10 +4363,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4389,14 +4392,14 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4445,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4466,10 +4469,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4477,10 +4480,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4506,14 +4509,14 @@
         <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4562,7 +4565,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4583,10 +4586,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4594,10 +4597,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4620,19 +4623,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4681,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4702,10 +4705,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4744,16 +4747,16 @@
         <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4832,13 +4835,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -4863,7 +4866,7 @@
         <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>207</v>
@@ -4900,10 +4903,10 @@
         <v>161</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4953,13 +4956,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -4984,7 +4987,7 @@
         <v>205</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>207</v>
@@ -5021,10 +5024,10 @@
         <v>161</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5074,13 +5077,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
@@ -5105,16 +5108,16 @@
         <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5143,7 +5146,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5193,13 +5196,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
@@ -5224,10 +5227,10 @@
         <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>208</v>
@@ -5264,7 +5267,7 @@
         <v>162</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5314,13 +5317,13 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5345,7 +5348,7 @@
         <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>207</v>
@@ -5385,7 +5388,7 @@
         <v>162</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5435,10 +5438,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5464,16 +5467,16 @@
         <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5522,7 +5525,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5543,10 +5546,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5554,10 +5557,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5583,13 +5586,13 @@
         <v>157</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5618,10 +5621,10 @@
         <v>176</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5639,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5671,14 +5674,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5697,17 +5700,17 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5756,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>89</v>
@@ -5771,27 +5774,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5814,16 +5817,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5873,7 +5876,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5888,27 +5891,27 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5931,16 +5934,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5990,7 +5993,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6005,27 +6008,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6048,16 +6051,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6107,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6116,7 +6119,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6131,18 +6134,18 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6165,13 +6168,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6222,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6243,21 +6246,21 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6280,13 +6283,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6337,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6361,18 +6364,18 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6395,13 +6398,13 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6452,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6473,21 +6476,21 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6510,13 +6513,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6567,7 +6570,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6579,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6591,7 +6594,7 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6599,10 +6602,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6628,10 +6631,10 @@
         <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6714,10 +6717,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6746,7 +6749,7 @@
         <v>137</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -6831,14 +6834,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6860,10 +6863,10 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>139</v>
@@ -6918,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6950,10 +6953,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6979,10 +6982,10 @@
         <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>189</v>
@@ -7014,10 +7017,10 @@
         <v>176</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7035,7 +7038,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7067,10 +7070,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7093,13 +7096,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7150,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7159,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7174,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7182,10 +7185,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7211,10 +7214,10 @@
         <v>157</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>189</v>
@@ -7246,10 +7249,10 @@
         <v>176</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7267,7 +7270,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7299,10 +7302,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7325,16 +7328,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7384,7 +7387,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7396,7 +7399,7 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7408,7 +7411,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7416,10 +7419,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7445,10 +7448,10 @@
         <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7531,10 +7534,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7563,7 +7566,7 @@
         <v>137</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>139</v>
@@ -7648,14 +7651,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7677,10 +7680,10 @@
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>139</v>
@@ -7735,7 +7738,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7767,10 +7770,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7796,10 +7799,10 @@
         <v>157</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>189</v>
@@ -7831,10 +7834,10 @@
         <v>176</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7852,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7884,10 +7887,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7910,13 +7913,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7967,7 +7970,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7976,7 +7979,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>101</v>
@@ -7991,18 +7994,18 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8025,13 +8028,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8082,7 +8085,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8097,16 +8100,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionTube.xlsx
+++ b/docs/StructureDefinition-LTCConditionTube.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
